--- a/data/trans_dic/P1419-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1419-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02985109157509879</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07872091918210591</v>
+        <v>0.07872091918210593</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01618604427614282</v>
+        <v>0.01660475003516897</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008205595673504032</v>
+        <v>0.008309649228108597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007202867419986313</v>
+        <v>0.006143579747607352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02534812402094646</v>
+        <v>0.02685526912619036</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06034462486173182</v>
+        <v>0.0614289098460962</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06741580321318287</v>
+        <v>0.06779276276350815</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02914035424143052</v>
+        <v>0.03088035781285157</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09661755763183877</v>
+        <v>0.09916301122944596</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04203599068333013</v>
+        <v>0.04190243509573683</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04150839073985833</v>
+        <v>0.04062814816586304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02217038589944607</v>
+        <v>0.02132338795075308</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06702773624071416</v>
+        <v>0.06753175864981817</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04078400407022086</v>
+        <v>0.04188462518430672</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02931602909660732</v>
+        <v>0.02998032985571107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02636397388574494</v>
+        <v>0.0260880480930265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05351287739653595</v>
+        <v>0.05592241439384284</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1010395150696656</v>
+        <v>0.1000630775698323</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1103739665473803</v>
+        <v>0.1105259328503344</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06405961702733667</v>
+        <v>0.06564250858087785</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1350004580932521</v>
+        <v>0.1358474329083818</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06576647018862247</v>
+        <v>0.06509500188578228</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06605244929719467</v>
+        <v>0.06515553443985732</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04185578195766051</v>
+        <v>0.04072607956730733</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09146939593770857</v>
+        <v>0.09244116999446422</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01940774083659783</v>
+        <v>0.02030492738501056</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005344708510782601</v>
+        <v>0.005472341644907532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003850903138861354</v>
+        <v>0.003784216907545099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02125996331672797</v>
+        <v>0.02139477309474131</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08928327019818454</v>
+        <v>0.08917561559327765</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0731093605717848</v>
+        <v>0.07498657331710797</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05898511857892953</v>
+        <v>0.05859440498646983</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09128523556915603</v>
+        <v>0.09191982859873397</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05595811398056573</v>
+        <v>0.05757749361650467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04163395317931066</v>
+        <v>0.04122755716681688</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03352379519385734</v>
+        <v>0.03274431921538774</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05986401726649606</v>
+        <v>0.05990366449761084</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0424875430330993</v>
+        <v>0.04176753076629653</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01886647848353858</v>
+        <v>0.01924016098697501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01565065475873759</v>
+        <v>0.01530661147181049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04153622668782886</v>
+        <v>0.04120460467101742</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1289664833973623</v>
+        <v>0.128676724535552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1096580973110882</v>
+        <v>0.111898196177894</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09494174586870163</v>
+        <v>0.09317926141952591</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1219014560882977</v>
+        <v>0.1217082353835908</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08074723533628607</v>
+        <v>0.08269079209456397</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0618240179463528</v>
+        <v>0.06108401291384274</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05299107799793368</v>
+        <v>0.05137595632286645</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07785794228386575</v>
+        <v>0.07830938082139317</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01503754487493809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04473169921038176</v>
+        <v>0.04473169921038177</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1149539292479482</v>
@@ -969,7 +969,7 @@
         <v>0.02927897649596131</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08031755263618094</v>
+        <v>0.08031755263618093</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02094093000955705</v>
+        <v>0.02018815397902319</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004082556776371492</v>
+        <v>0.004043961997772364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008717294536778731</v>
+        <v>0.007929232768860752</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03320637573008398</v>
+        <v>0.03142192191067462</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09264546457911606</v>
+        <v>0.09137803056252589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05950812672850621</v>
+        <v>0.05992118611754656</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02963689687686615</v>
+        <v>0.02910590068357214</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09692517795274894</v>
+        <v>0.09717285408672958</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06055440165910959</v>
+        <v>0.06114540489989955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03489034775961761</v>
+        <v>0.0339416865562639</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02110853368764652</v>
+        <v>0.02194866914113218</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06985545648713307</v>
+        <v>0.06840081426283658</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04969309838107368</v>
+        <v>0.05109227532206115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02249967130688713</v>
+        <v>0.02109594081565935</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0248130981020463</v>
+        <v>0.02659654701168981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06209828308111404</v>
+        <v>0.06074258743642801</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1384010889956736</v>
+        <v>0.1380692600342294</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1025936395563051</v>
+        <v>0.09899195184257395</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06104302044191975</v>
+        <v>0.05894952792056656</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1343575238997291</v>
+        <v>0.1349186217142499</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08831650847300225</v>
+        <v>0.08907096191154976</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05635704375384936</v>
+        <v>0.05665345533534695</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03945756666700034</v>
+        <v>0.03923063844067554</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09379669112940284</v>
+        <v>0.09271504987799391</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02386794844949326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04127378284065293</v>
+        <v>0.04127378284065294</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1215301921107766</v>
@@ -1105,7 +1105,7 @@
         <v>0.04995851131986077</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07329135900945873</v>
+        <v>0.07329135900945874</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02291363744264642</v>
+        <v>0.02296991187234628</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004310506605444531</v>
+        <v>0.005241047292567426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01558515221541117</v>
+        <v>0.01376528974835838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03065452078604112</v>
+        <v>0.0309957546737664</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1035409801299301</v>
+        <v>0.1026602374450346</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06209758329957375</v>
+        <v>0.06379467822518629</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05660387904696101</v>
+        <v>0.05812027822601109</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08877331606990142</v>
+        <v>0.08862590417797839</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06847214829479892</v>
+        <v>0.06765547127461544</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03694448857757748</v>
+        <v>0.03821745206819402</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0401679392613578</v>
+        <v>0.03984336927924294</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06482633829832649</v>
+        <v>0.06411694081110325</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04390256641533218</v>
+        <v>0.04492680340394647</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02027047006074925</v>
+        <v>0.02082297311028523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03684546152889034</v>
+        <v>0.03524120497947298</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0538034335756454</v>
+        <v>0.05347500604291061</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1444395331248895</v>
+        <v>0.1451916089156858</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0961684760652798</v>
+        <v>0.09884927059251288</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09237933739871149</v>
+        <v>0.09250713678895003</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1179977693439393</v>
+        <v>0.1173500424539532</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09273638869872096</v>
+        <v>0.09260986371821184</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05625990952080443</v>
+        <v>0.05754362006915924</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0610754899376215</v>
+        <v>0.06105300089194012</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08379698115124018</v>
+        <v>0.08360406680340617</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008321914230386985</v>
+        <v>0.008544790778515452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0116358945316479</v>
+        <v>0.01143489442991734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03231788471421401</v>
+        <v>0.03236046250818243</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07562042602825234</v>
+        <v>0.0754780933745748</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05328149660140567</v>
+        <v>0.05342894227592656</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1008284081818562</v>
+        <v>0.1009615313616436</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04344210027482111</v>
+        <v>0.04390865101475343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03431353413956627</v>
+        <v>0.03426814894405213</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06970228890289258</v>
+        <v>0.06971613680761042</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01587805664747063</v>
+        <v>0.01658484248647284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01990460939253804</v>
+        <v>0.02027032827971853</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04510363066679177</v>
+        <v>0.04527750880996773</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09456085062818462</v>
+        <v>0.09371339908290738</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06981000136150362</v>
+        <v>0.07065947332709893</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.116975956090737</v>
+        <v>0.1172334572170692</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05416702218811009</v>
+        <v>0.05417611118663095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0441471124840507</v>
+        <v>0.04452307355838149</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07984514638403362</v>
+        <v>0.08020719445968978</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11233</v>
+        <v>11524</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5772</v>
+        <v>5846</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4860</v>
+        <v>4146</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17508</v>
+        <v>18549</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>41538</v>
+        <v>42285</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>46992</v>
+        <v>47255</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19607</v>
+        <v>20778</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>70794</v>
+        <v>72659</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>58109</v>
+        <v>57924</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>58133</v>
+        <v>56900</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29878</v>
+        <v>28736</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>95409</v>
+        <v>96127</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28305</v>
+        <v>29068</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20623</v>
+        <v>21090</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17790</v>
+        <v>17604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36962</v>
+        <v>38626</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>69551</v>
+        <v>68879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>76936</v>
+        <v>77042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43102</v>
+        <v>44167</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>98918</v>
+        <v>99538</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>90913</v>
+        <v>89985</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>92508</v>
+        <v>91252</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>56406</v>
+        <v>54884</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>130200</v>
+        <v>131584</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18666</v>
+        <v>19529</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5441</v>
+        <v>5571</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3937</v>
+        <v>3869</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22300</v>
+        <v>22441</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>86461</v>
+        <v>86357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>75228</v>
+        <v>77159</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>61516</v>
+        <v>61109</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>97628</v>
+        <v>98307</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>108010</v>
+        <v>111136</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>85221</v>
+        <v>84390</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>69238</v>
+        <v>67628</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>126816</v>
+        <v>126900</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40865</v>
+        <v>40172</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19205</v>
+        <v>19585</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16002</v>
+        <v>15650</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43568</v>
+        <v>43220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>124890</v>
+        <v>124610</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>112835</v>
+        <v>115140</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>99016</v>
+        <v>97178</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>130372</v>
+        <v>130165</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>155858</v>
+        <v>159609</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>126549</v>
+        <v>125034</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>109445</v>
+        <v>106109</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>164934</v>
+        <v>165891</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14209</v>
+        <v>13698</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3093</v>
+        <v>3064</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6621</v>
+        <v>6023</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26606</v>
+        <v>25176</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63355</v>
+        <v>62488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46248</v>
+        <v>46569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23265</v>
+        <v>22848</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>78662</v>
+        <v>78863</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>82496</v>
+        <v>83301</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>53550</v>
+        <v>52094</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>32603</v>
+        <v>33901</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>112662</v>
+        <v>110316</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33717</v>
+        <v>34667</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17046</v>
+        <v>15983</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18847</v>
+        <v>20201</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49754</v>
+        <v>48668</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>94644</v>
+        <v>94417</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>79733</v>
+        <v>76934</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>47919</v>
+        <v>46276</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>109041</v>
+        <v>109497</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>120318</v>
+        <v>121346</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>86497</v>
+        <v>86952</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>60945</v>
+        <v>60594</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>151275</v>
+        <v>149530</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21590</v>
+        <v>21643</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4085</v>
+        <v>4967</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14612</v>
+        <v>12906</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30350</v>
+        <v>30688</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>107539</v>
+        <v>106624</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65321</v>
+        <v>67106</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59082</v>
+        <v>60665</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>99216</v>
+        <v>99051</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>135632</v>
+        <v>134014</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>73876</v>
+        <v>76421</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>79587</v>
+        <v>78944</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>136634</v>
+        <v>135139</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41366</v>
+        <v>42331</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19211</v>
+        <v>19735</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34545</v>
+        <v>33041</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53269</v>
+        <v>52944</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>150017</v>
+        <v>150798</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>101160</v>
+        <v>103980</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>96424</v>
+        <v>96557</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>131878</v>
+        <v>131154</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>183695</v>
+        <v>183445</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>112500</v>
+        <v>115067</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>121012</v>
+        <v>120967</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>176619</v>
+        <v>176212</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28517</v>
+        <v>29281</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>39496</v>
+        <v>38814</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>114111</v>
+        <v>114262</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>268838</v>
+        <v>268332</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>188859</v>
+        <v>189381</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>376233</v>
+        <v>376729</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>303307</v>
+        <v>306565</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>238098</v>
+        <v>237783</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>506200</v>
+        <v>506301</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>54411</v>
+        <v>56833</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>67563</v>
+        <v>68805</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>159257</v>
+        <v>159871</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>336173</v>
+        <v>333160</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>247444</v>
+        <v>250455</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>436486</v>
+        <v>437447</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>378187</v>
+        <v>378251</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>306332</v>
+        <v>308941</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>579861</v>
+        <v>582490</v>
       </c>
     </row>
     <row r="24">
